--- a/Arul_KUBS_InterBranchFundTransfer/Test-data/KUBSTestData.xlsx
+++ b/Arul_KUBS_InterBranchFundTransfer/Test-data/KUBSTestData.xlsx
@@ -38,8 +38,9 @@
     <sheet name="FixedAsset_AssetCreation" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="GLTestData" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="GL2TestData" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="InterBranchFundTransfer" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="TestExecution" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="TellerCashTransfer" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="InterBranchFundTransfer" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="TestExecution" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1336">
   <si>
     <t xml:space="preserve">Master Screen Name</t>
   </si>
@@ -4888,6 +4889,87 @@
     <t xml:space="preserve">KUBS_GL2_UAT_008_013_D1</t>
   </si>
   <si>
+    <t xml:space="preserve">TargetTellerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DenomCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DenomName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MakerSubmitRemarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransactionRefNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchValidData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchInvalidData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportBranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_001_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1002439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twenty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_005_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL_15/2/2023/AZENTMAIN/281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_009_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_013_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$#$#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_TCT_015_D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ModeOfPayment</t>
   </si>
   <si>
@@ -4924,28 +5006,19 @@
     <t xml:space="preserve">Remarks2</t>
   </si>
   <si>
-    <t xml:space="preserve">MakerSubmitRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchValidData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchInvalidData</t>
-  </si>
-  <si>
     <t xml:space="preserve">KUBS_IBFT_001</t>
   </si>
   <si>
     <t xml:space="preserve">KUBS_IBFT_001_D1</t>
   </si>
   <si>
-    <t xml:space="preserve">265</t>
+    <t xml:space="preserve">302</t>
   </si>
   <si>
     <t xml:space="preserve">test123</t>
   </si>
   <si>
-    <t xml:space="preserve">test1233450</t>
+    <t xml:space="preserve">test1232824</t>
   </si>
   <si>
     <t xml:space="preserve">1110103001 – Vehicles</t>
@@ -4969,10 +5042,10 @@
     <t xml:space="preserve">KUBS_IBFT_005_D1</t>
   </si>
   <si>
-    <t xml:space="preserve">266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1231323</t>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1233074</t>
   </si>
   <si>
     <t xml:space="preserve">KUBS_IBFT_009</t>
@@ -4981,7 +5054,10 @@
     <t xml:space="preserve">KUBS_IBFT_009_D1</t>
   </si>
   <si>
-    <t xml:space="preserve">268</t>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1232708</t>
   </si>
   <si>
     <t xml:space="preserve">KUBS_IBFT_013</t>
@@ -4991,6 +5067,12 @@
   </si>
   <si>
     <t xml:space="preserve">$#$#$#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_IBFT_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUBS_IBFT_015_D1</t>
   </si>
   <si>
     <t xml:space="preserve">Sequence</t>
@@ -5093,127 +5175,37 @@
     <t xml:space="preserve">KUBS_BP_UAT_005_002_06_D1</t>
   </si>
   <si>
-    <t>test1231787</t>
-  </si>
-  <si>
-    <t>281</t>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1002439</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>TL_15/2/2023/AZENTMAIN/323</t>
   </si>
   <si>
     <t>twin01</t>
   </si>
   <si>
-    <t>test1234033</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>test1231352</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>test1231204</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>test1233329</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>test1234000</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>test1231075</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>test123856</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>test1236953</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>test123304</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>test1234463</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>test1231571</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>test123228</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>test1234480</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>test1234310</t>
-  </si>
-  <si>
-    <t>test1231646</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>test1232698</t>
-  </si>
-  <si>
-    <t>test1236379</t>
+    <t>1151</t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
-    <t>test1232824</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>test1233074</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>test1232708</t>
-  </si>
-  <si>
-    <t>304</t>
+    <t/>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>TL_15/2/2023/AZENTMAIN/325</t>
   </si>
 </sst>
 </file>
@@ -5554,7 +5546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5578,6 +5570,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -5588,7 +5586,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6221,11 +6219,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6233,83 +6231,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="7" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="7" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="7" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="6" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6317,63 +6315,63 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6383,6 +6381,10 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -6410,7 +6412,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -6419,10 +6421,16 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Result2" xfId="20"/>
     <cellStyle name="Result2 1" xfId="21"/>
-    <cellStyle name="Result2 2" xfId="22"/>
-    <cellStyle name="Result2 3" xfId="23"/>
-    <cellStyle name="Result2 4" xfId="24"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="25"/>
+    <cellStyle name="Result2 10" xfId="22"/>
+    <cellStyle name="Result2 2" xfId="23"/>
+    <cellStyle name="Result2 3" xfId="24"/>
+    <cellStyle name="Result2 4" xfId="25"/>
+    <cellStyle name="Result2 5" xfId="26"/>
+    <cellStyle name="Result2 6" xfId="27"/>
+    <cellStyle name="Result2 7" xfId="28"/>
+    <cellStyle name="Result2 8" xfId="29"/>
+    <cellStyle name="Result2 9" xfId="30"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="31"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -6500,14 +6508,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="44.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="1" width="41.22" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="true" style="1" width="21.69" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="123.5" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="37.34" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="2" width="39.06" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="44.8" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="1" width="41.47" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="true" style="1" width="21.82" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="124.28" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="37.57" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="2" width="39.31" collapsed="true" outlineLevel="0"/>
     <col min="7" max="7" customWidth="true" hidden="true" style="1" width="6.88" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="1024" customWidth="true" hidden="false" style="1" width="123.5" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="1024" customWidth="true" hidden="false" style="1" width="124.28" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,17 +6700,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="65.63" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="73.97" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="25.57" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.17" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="59.6" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="52.7" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="54.29" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="39.78" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="66.03" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="74.44" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="25.73" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="59.98" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="53.04" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="54.63" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="40.02" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,19 +6797,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="69.66" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="76.54" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.32" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="75.69" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="33.06" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="37.34" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="30.6" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="23.98" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="24.69" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="70.11" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="77.03" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.55" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="76.16" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="33.28" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="37.57" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="30.8" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="24.85" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,31 +6920,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.25" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="77.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="34.63" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="43.82" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="1" width="36.61" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="19.53" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="65.76" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="91" width="62.76" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="60.04" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="49.84" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="33.06" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="31.76" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="1" width="64.04" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="32.75" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="30.73" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="22.13" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="21.69" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="29.0" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="18.81" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="48.54" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.71" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="78.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="34.85" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="44.1" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="7" customWidth="true" hidden="false" style="1" width="36.84" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="19.65" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="66.17" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="91" width="63.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="60.43" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="50.15" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="33.28" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="31.98" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="1" width="64.45" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="32.97" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="30.93" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="22.26" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="21.82" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="29.19" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="18.94" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="48.85" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,14 +7296,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="70.11" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="74.55" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="62.65" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="8" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="33.06" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="32.75" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="70.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="75.0" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="63.05" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="8" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="33.28" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="32.97" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,20 +7470,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="77.69" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="84.15" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="25.27" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="26.0" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="26.86" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="40.2" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="42.94" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="22.97" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="24.28" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="20.54" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="78.21" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="84.68" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="25.42" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="26.18" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="27.03" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="40.45" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="43.21" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="23.13" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="24.28" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="20.66" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,18 +8093,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="64.5" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="70.38" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="22.81" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="7" customWidth="true" hidden="false" style="1" width="36.34" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="27.87" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="29.59" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="37.34" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="21" customWidth="true" hidden="false" style="1" width="36.34" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="40.2" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="48" customWidth="true" hidden="false" style="1" width="36.34" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="1" width="56.0" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="1024" customWidth="true" hidden="false" style="1" width="36.34" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="64.91" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="70.84" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="22.97" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="true" hidden="false" style="1" width="36.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="28.03" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="29.78" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="37.57" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="21" customWidth="true" hidden="false" style="1" width="36.57" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="40.45" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="48" customWidth="true" hidden="false" style="1" width="36.57" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="1" width="56.35" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="1024" customWidth="true" hidden="false" style="1" width="36.57" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9683,17 +9691,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="87.46" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="83.12" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="35.2" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="31.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="31.45" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="28.46" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="26.86" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="13" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="15" customWidth="true" hidden="false" style="1" width="30.73" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="88.02" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="83.66" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="35.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="31.83" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="31.65" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="28.65" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="27.03" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="13" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="15" customWidth="true" hidden="false" style="1" width="30.93" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,19 +10113,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="69.96" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="61.03" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="13.38" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.34" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="56.0" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="18.53" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="56.45" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="59.6" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="11" customWidth="true" hidden="false" style="1" width="62.32" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="105.14" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="78.71" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="63.06" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="70.41" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="61.44" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="13.45" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.43" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="56.35" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="18.66" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="56.8" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="59.98" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="11" customWidth="true" hidden="false" style="1" width="62.72" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="105.82" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="79.21" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="63.46" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,30 +10972,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="55.74" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="57.0" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="13.49" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.77" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="17.95" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="14.09" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="9" customWidth="true" hidden="false" style="1" width="44.83" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="91" width="47.68" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="47.68" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="75.27" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="78.85" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="73.39" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="34.2" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="20.54" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="34.2" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="45.55" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="22" customWidth="true" hidden="false" style="1" width="48.54" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="37.19" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="35.47" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="46.23" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="91" width="31.03" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="1023" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="1024" max="1024" customWidth="true" hidden="false" style="121" width="16.96" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="56.1" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="57.38" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="18.05" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="14.17" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="9" customWidth="true" hidden="false" style="1" width="45.12" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="91" width="47.99" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="47.99" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="75.74" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="79.37" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="73.85" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="34.43" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="20.66" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="34.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="45.84" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="22" customWidth="true" hidden="false" style="1" width="48.85" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="37.41" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="35.7" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="46.52" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="91" width="31.23" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="1023" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="1024" max="1024" customWidth="true" hidden="false" style="121" width="17.06" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,16 +13049,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="42.66" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="56.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="14.93" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="14.21" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="15" customWidth="true" hidden="false" style="1" width="35.77" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="22.81" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="26" customWidth="true" hidden="false" style="1" width="35.77" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.78" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="42.36" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="1024" customWidth="true" hidden="false" style="1" width="35.77" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="42.94" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="56.68" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="15.02" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="14.28" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="15" customWidth="true" hidden="false" style="1" width="36.0" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="22.97" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="26" customWidth="true" hidden="false" style="1" width="36.0" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="42.63" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="1024" customWidth="true" hidden="false" style="1" width="36.0" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14107,10 +14115,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="34.2" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="39.78" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="40.2" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="34.43" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="40.02" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="40.45" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14239,22 +14247,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="34.05" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="35.05" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="14.93" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="14.21" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.63" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="8" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="36.04" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="26.57" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="32.75" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="50.26" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="28.28" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="31.45" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="29.72" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="27.87" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="34.28" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="35.28" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="15.02" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="14.28" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="33.86" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="8" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="36.27" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="26.75" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="32.97" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="50.57" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="28.47" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="31.65" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="29.91" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="28.03" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14698,18 +14706,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="69.96" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="61.03" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="47.53" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="38.06" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="56.0" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="56.45" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="59.6" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="62.32" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="105.14" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="78.71" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="63.06" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="70.41" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="61.44" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="47.84" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="38.29" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="56.35" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="56.8" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="59.98" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="62.72" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="105.82" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="79.21" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="63.46" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14895,7 +14903,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14921,7 +14929,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14947,18 +14955,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.53" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="76.41" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="51.14" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="51.71" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="40.93" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="65.63" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="9" customWidth="true" hidden="false" style="1" width="62.32" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="48.54" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="42.52" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="38.64" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.98" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="76.88" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="51.46" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="52.03" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="41.19" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="66.03" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="9" customWidth="true" hidden="false" style="1" width="62.72" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="48.85" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="42.79" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="38.87" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15179,19 +15187,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="44.96" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="52.7" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="45.23" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="39.48" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="38.64" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="48.97" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="44.96" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="23.41" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="47.53" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="41.22" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="64.37" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="56.15" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="45.26" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="53.04" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="45.53" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="39.74" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="38.87" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="49.27" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="45.26" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="23.56" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="47.84" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="41.47" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="64.77" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="56.53" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15316,22 +15324,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="57.86" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="62.76" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="41.61" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="28.15" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="44.96" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="42.52" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="69.35" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="31.03" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="43.52" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="33.63" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="52.7" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="66.76" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="15" customWidth="true" hidden="false" style="1" width="64.5" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="70.95" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="58.25" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="63.17" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="41.88" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="28.33" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="45.26" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="42.79" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="69.8" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="31.23" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="43.81" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="33.86" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="53.04" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="67.2" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="15" customWidth="true" hidden="false" style="1" width="64.91" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="71.41" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15458,13 +15466,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="54.43" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="59.6" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="28.15" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="40.78" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="43.82" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="50.41" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="54.78" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="59.98" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="28.33" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="41.04" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="44.1" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="50.73" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15533,21 +15541,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="56.74" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="50.41" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="38.06" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="33.63" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="55.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="71.53" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="59.31" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="51.56" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="44.96" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="54.15" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="34.63" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="14" customWidth="true" hidden="false" style="1" width="47.84" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="16" customWidth="true" hidden="false" style="1" width="42.36" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="47.4" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="57.13" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="50.73" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="38.29" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="33.86" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="55.99" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="71.98" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="59.7" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="51.88" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="45.26" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="54.49" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="34.85" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="14" customWidth="true" hidden="false" style="1" width="48.15" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="16" customWidth="true" hidden="false" style="1" width="42.63" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="47.7" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15725,38 +15733,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="158" width="31.03" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="158" width="36.92" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="158" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="158" width="12.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="158" width="30.31" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="158" width="21.25" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="158" width="16.09" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="158" width="18.94" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="158" width="20.24" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="13" customWidth="true" hidden="false" style="158" width="12.64" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="158" width="20.24" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="158" width="20.6" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="158" width="18.81" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="158" width="25.2" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="158" width="19.83" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="158" width="27.79" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="158" width="23.41" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="158" width="13.64" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="158" width="18.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="158" width="13.64" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="158" width="13.76" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="25" customWidth="true" hidden="false" style="158" width="21.97" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="158" width="18.75" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="158" width="21.97" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="158" width="16.55" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="31" customWidth="true" hidden="false" style="158" width="14.93" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="158" width="25.85" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="159" width="27.58" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="159" width="23.14" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="158" width="21.08" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="36" customWidth="true" hidden="false" style="160" width="20.4" collapsed="true" outlineLevel="0"/>
-    <col min="37" max="1024" customWidth="true" hidden="false" style="160" width="9.76" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="158" width="31.23" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="158" width="37.15" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="158" width="12.92" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="158" width="12.24" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="158" width="30.5" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="158" width="21.38" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="158" width="16.16" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="158" width="19.06" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="158" width="20.37" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="13" customWidth="true" hidden="false" style="158" width="12.71" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="158" width="20.37" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="158" width="20.72" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="158" width="18.94" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="158" width="25.37" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="158" width="19.94" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="158" width="27.97" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="158" width="23.56" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="158" width="13.71" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="158" width="18.28" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="158" width="13.71" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="158" width="13.86" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="158" width="22.1" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="158" width="18.88" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="158" width="22.1" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="158" width="16.66" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="31" customWidth="true" hidden="false" style="158" width="15.02" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="158" width="26.02" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="159" width="27.75" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="159" width="23.27" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="158" width="21.23" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="36" customWidth="true" hidden="false" style="160" width="20.53" collapsed="true" outlineLevel="0"/>
+    <col min="37" max="1024" customWidth="true" hidden="false" style="160" width="9.83" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20099,7 +20107,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="74.26" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1024" customWidth="true" hidden="false" style="1" width="74.73" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20173,28 +20181,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="158" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="158" width="12.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="158" width="54.02" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="158" width="38.91" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="158" width="48.54" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="158" width="38.33" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="158" width="43.35" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="158" width="52.29" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="158" width="41.22" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="158" width="52.7" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="158" width="47.27" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="28" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="158" width="34.82" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="30" customWidth="true" hidden="false" style="158" width="26.27" collapsed="true" outlineLevel="0"/>
-    <col min="31" max="33" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="158" width="38.64" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="36" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="37" max="37" customWidth="true" hidden="false" style="158" width="39.9" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="55" customWidth="true" hidden="false" style="158" width="37.49" collapsed="true" outlineLevel="0"/>
-    <col min="56" max="1024" customWidth="true" hidden="false" style="160" width="37.49" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="2" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="158" width="12.92" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="158" width="12.24" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="158" width="54.36" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="158" width="39.14" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="158" width="48.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="158" width="38.56" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="158" width="43.62" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="158" width="52.62" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="158" width="41.47" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="158" width="53.04" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="158" width="47.59" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="28" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="158" width="35.05" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="30" customWidth="true" hidden="false" style="158" width="26.45" collapsed="true" outlineLevel="0"/>
+    <col min="31" max="33" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="158" width="38.87" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="36" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="37" max="37" customWidth="true" hidden="false" style="158" width="40.15" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="55" customWidth="true" hidden="false" style="158" width="37.72" collapsed="true" outlineLevel="0"/>
+    <col min="56" max="1024" customWidth="true" hidden="false" style="160" width="37.72" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23716,30 +23724,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="18.64" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="22.77" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="14.55" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.54" collapsed="true" outlineLevel="0"/>
     <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="12.7734375" collapsed="true" outlineLevel="0"/>
     <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="12.3515625" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="23.9" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="16.62" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="14.06" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="21.4609375" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="13.24" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="20.8" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="13.82" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="17.1" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="31.77" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="0" width="21.28" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="0" width="16.75" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="0" width="18.16" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="14.41" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="12.7" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="13.26" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="8.68" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" hidden="false" style="0" width="29.36328125" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="16.78" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="18.2" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="15.78" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="29.64" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="0" width="18.45" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23768,213 +23776,164 @@
         <v>1235</v>
       </c>
       <c r="I1" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="197" t="s">
         <v>1236</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="K1" s="197" t="s">
         <v>1237</v>
       </c>
-      <c r="K1" s="197" t="s">
+      <c r="L1" s="197" t="s">
         <v>1238</v>
       </c>
-      <c r="L1" s="197" t="s">
+      <c r="M1" s="197" t="s">
         <v>1239</v>
       </c>
-      <c r="M1" s="197" t="s">
+      <c r="N1" s="197" t="s">
         <v>1240</v>
       </c>
-      <c r="N1" s="197" t="s">
+      <c r="O1" s="197" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="197" t="s">
         <v>1241</v>
       </c>
-      <c r="O1" s="197" t="s">
+      <c r="Q1" s="197" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="198" t="s">
         <v>1242</v>
       </c>
-      <c r="P1" s="197" t="s">
+      <c r="B2" s="198" t="s">
         <v>1243</v>
-      </c>
-      <c r="Q1" s="197" t="s">
-        <v>1244</v>
-      </c>
-      <c r="R1" s="197" t="s">
-        <v>1245</v>
-      </c>
-      <c r="S1" s="197" t="s">
-        <v>1246</v>
-      </c>
-      <c r="T1" s="197" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="198" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B2" s="198" t="s">
-        <v>1249</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1334</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1300</v>
+        <v>1329</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>95</v>
+        <v>1246</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>978</v>
+        <v>1248</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N2" s="199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="198" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B3" s="198" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N3" s="199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="198" t="s">
         <v>1253</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="B4" s="198" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="N4" s="199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="N2" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="198" t="s">
         <v>1255</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="B5" s="198" t="s">
         <v>1256</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="L5" s="199" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>1257</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="198" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="198" t="s">
         <v>1258</v>
       </c>
-      <c r="B3" s="198" t="s">
+      <c r="B6" s="198" t="s">
         <v>1259</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>1256</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="198" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B4" s="198" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>1256</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="198" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B5" s="198" t="s">
-        <v>1266</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>1267</v>
+      <c r="P6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -23993,6 +23952,305 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="18.75" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="22.92" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.87" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="12.44" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="24.04" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="16.72" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="14.15" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="21.6" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="13.32" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="20.93" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="13.9" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="31.98" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="0" width="21.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="0" width="16.85" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="0" width="18.28" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="0" width="29.64" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="0" width="18.45" collapsed="true" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="196" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="122" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1" s="197" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G1" s="197" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H1" s="197" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I1" s="197" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J1" s="197" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K1" s="197" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L1" s="197" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M1" s="197" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N1" s="197" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O1" s="197" t="s">
+        <v>1269</v>
+      </c>
+      <c r="P1" s="197" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q1" s="197" t="s">
+        <v>1271</v>
+      </c>
+      <c r="R1" s="197" t="s">
+        <v>1236</v>
+      </c>
+      <c r="S1" s="197" t="s">
+        <v>1238</v>
+      </c>
+      <c r="T1" s="197" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U1" s="197" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V1" s="197" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="198" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="198" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B3" s="198" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="198" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="198" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B5" s="198" t="s">
+        <v>1291</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="198" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B6" s="198" t="s">
+        <v>1294</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
@@ -24001,121 +24259,121 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="17.95" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="76.41" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="56.33" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="31.61" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="54.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="54.43" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="69.66" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="61.03" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="66.63" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="75.27" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="56.15" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="62.32" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="20.97" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="53.3" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="53.71" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="18.05" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="76.88" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="56.68" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="31.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="54.96" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="54.78" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="70.11" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="61.44" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="67.05" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="75.74" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="56.53" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="62.72" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="21.11" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="53.65" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="54.07" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="199" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B1" s="200" t="s">
+      <c r="A1" s="200" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="201" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="201" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1" s="202" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F1" s="199" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G1" s="201" t="s">
-        <v>1272</v>
-      </c>
-      <c r="H1" s="202" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I1" s="199" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J1" s="201" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K1" s="202" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L1" s="199" t="s">
-        <v>1277</v>
-      </c>
-      <c r="M1" s="201" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N1" s="202" t="s">
-        <v>1279</v>
-      </c>
-      <c r="O1" s="199" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P1" s="201" t="s">
-        <v>1281</v>
-      </c>
-      <c r="Q1" s="202" t="s">
-        <v>1282</v>
-      </c>
-      <c r="R1" s="199" t="s">
-        <v>1283</v>
-      </c>
-      <c r="S1" s="201" t="s">
-        <v>1284</v>
+      <c r="D1" s="202" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1" s="203" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F1" s="200" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G1" s="202" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1" s="203" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J1" s="202" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K1" s="203" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L1" s="200" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M1" s="202" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N1" s="203" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O1" s="200" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P1" s="202" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Q1" s="203" t="s">
+        <v>1309</v>
+      </c>
+      <c r="R1" s="200" t="s">
+        <v>1310</v>
+      </c>
+      <c r="S1" s="202" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="204" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="204" t="s">
         <v>529</v>
       </c>
       <c r="D2" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="204" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="203" t="s">
+      <c r="F2" s="204" t="s">
         <v>533</v>
       </c>
       <c r="G2" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="204" t="s">
         <v>536</v>
       </c>
       <c r="J2" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K2" s="203" t="s">
+      <c r="K2" s="204" t="s">
         <v>537</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="204" t="s">
         <v>538</v>
       </c>
       <c r="M2" s="70" t="s">
@@ -24132,37 +24390,37 @@
       <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="204" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="204" t="s">
         <v>542</v>
       </c>
       <c r="D3" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E3" s="203" t="s">
+      <c r="E3" s="204" t="s">
         <v>544</v>
       </c>
-      <c r="F3" s="203" t="s">
+      <c r="F3" s="204" t="s">
         <v>545</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H3" s="203" t="s">
+      <c r="H3" s="204" t="s">
         <v>547</v>
       </c>
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="204" t="s">
         <v>548</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K3" s="203" t="s">
+      <c r="K3" s="204" t="s">
         <v>549</v>
       </c>
-      <c r="L3" s="203" t="s">
+      <c r="L3" s="204" t="s">
         <v>550</v>
       </c>
       <c r="M3" s="70" t="s">
@@ -24179,37 +24437,37 @@
       <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="204" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="204" t="s">
         <v>553</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="204" t="s">
         <v>555</v>
       </c>
-      <c r="F4" s="203" t="s">
+      <c r="F4" s="204" t="s">
         <v>556</v>
       </c>
       <c r="G4" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H4" s="203" t="s">
+      <c r="H4" s="204" t="s">
         <v>558</v>
       </c>
-      <c r="I4" s="203" t="s">
+      <c r="I4" s="204" t="s">
         <v>559</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K4" s="203" t="s">
+      <c r="K4" s="204" t="s">
         <v>560</v>
       </c>
-      <c r="L4" s="203" t="s">
+      <c r="L4" s="204" t="s">
         <v>561</v>
       </c>
       <c r="M4" s="70" t="s">
@@ -24226,37 +24484,37 @@
       <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="204" t="s">
         <v>564</v>
       </c>
       <c r="D5" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E5" s="203" t="s">
+      <c r="E5" s="204" t="s">
         <v>566</v>
       </c>
-      <c r="F5" s="203" t="s">
+      <c r="F5" s="204" t="s">
         <v>567</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H5" s="203" t="s">
+      <c r="H5" s="204" t="s">
         <v>569</v>
       </c>
-      <c r="I5" s="203" t="s">
+      <c r="I5" s="204" t="s">
         <v>570</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K5" s="203" t="s">
+      <c r="K5" s="204" t="s">
         <v>571</v>
       </c>
-      <c r="L5" s="203" t="s">
+      <c r="L5" s="204" t="s">
         <v>572</v>
       </c>
       <c r="M5" s="70" t="s">
@@ -24273,55 +24531,55 @@
       <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="205" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="205" t="s">
         <v>575</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="205" t="s">
         <v>576</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="205" t="s">
         <v>577</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="205" t="s">
         <v>579</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="205" t="s">
         <v>580</v>
       </c>
       <c r="J6" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K6" s="204" t="s">
+      <c r="K6" s="205" t="s">
         <v>581</v>
       </c>
-      <c r="L6" s="204" t="s">
+      <c r="L6" s="205" t="s">
         <v>582</v>
       </c>
       <c r="M6" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="N6" s="204" t="s">
+      <c r="N6" s="205" t="s">
         <v>585</v>
       </c>
-      <c r="O6" s="204" t="s">
+      <c r="O6" s="205" t="s">
         <v>586</v>
       </c>
       <c r="P6" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="Q6" s="204" t="s">
+      <c r="Q6" s="205" t="s">
         <v>588</v>
       </c>
-      <c r="R6" s="204" t="s">
+      <c r="R6" s="205" t="s">
         <v>589</v>
       </c>
       <c r="S6" s="70" t="s">
@@ -24332,55 +24590,55 @@
       <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="205" t="s">
         <v>590</v>
       </c>
-      <c r="C7" s="204" t="s">
+      <c r="C7" s="205" t="s">
         <v>591</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E7" s="204" t="s">
+      <c r="E7" s="205" t="s">
         <v>592</v>
       </c>
-      <c r="F7" s="204" t="s">
+      <c r="F7" s="205" t="s">
         <v>593</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H7" s="204" t="s">
+      <c r="H7" s="205" t="s">
         <v>595</v>
       </c>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="205" t="s">
         <v>596</v>
       </c>
       <c r="J7" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K7" s="204" t="s">
+      <c r="K7" s="205" t="s">
         <v>597</v>
       </c>
-      <c r="L7" s="204" t="s">
+      <c r="L7" s="205" t="s">
         <v>598</v>
       </c>
       <c r="M7" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="N7" s="204" t="s">
+      <c r="N7" s="205" t="s">
         <v>600</v>
       </c>
-      <c r="O7" s="204" t="s">
+      <c r="O7" s="205" t="s">
         <v>601</v>
       </c>
       <c r="P7" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="Q7" s="204" t="s">
+      <c r="Q7" s="205" t="s">
         <v>603</v>
       </c>
-      <c r="R7" s="204" t="s">
+      <c r="R7" s="205" t="s">
         <v>604</v>
       </c>
       <c r="S7" s="70" t="s">
@@ -24391,47 +24649,47 @@
       <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="205" t="s">
         <v>606</v>
       </c>
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="205" t="s">
         <v>607</v>
       </c>
       <c r="D8" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E8" s="204" t="s">
+      <c r="E8" s="205" t="s">
         <v>608</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="205" t="s">
         <v>609</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H8" s="204" t="s">
+      <c r="H8" s="205" t="s">
         <v>611</v>
       </c>
-      <c r="I8" s="204" t="s">
+      <c r="I8" s="205" t="s">
         <v>612</v>
       </c>
       <c r="J8" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K8" s="204" t="s">
+      <c r="K8" s="205" t="s">
         <v>613</v>
       </c>
-      <c r="L8" s="204" t="s">
+      <c r="L8" s="205" t="s">
         <v>614</v>
       </c>
       <c r="M8" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="N8" s="204" t="s">
+      <c r="N8" s="205" t="s">
         <v>616</v>
       </c>
-      <c r="O8" s="204" t="s">
-        <v>1285</v>
+      <c r="O8" s="205" t="s">
+        <v>1312</v>
       </c>
       <c r="P8" s="70" t="s">
         <v>1171</v>
@@ -24444,56 +24702,56 @@
       <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="204" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C9" s="204" t="s">
-        <v>1287</v>
+      <c r="B9" s="205" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C9" s="205" t="s">
+        <v>1314</v>
       </c>
       <c r="D9" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="E9" s="204" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F9" s="204" t="s">
-        <v>1289</v>
+      <c r="E9" s="205" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F9" s="205" t="s">
+        <v>1316</v>
       </c>
       <c r="G9" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="H9" s="204" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I9" s="204" t="s">
-        <v>1291</v>
+      <c r="H9" s="205" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>1318</v>
       </c>
       <c r="J9" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="K9" s="204" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L9" s="204" t="s">
-        <v>1293</v>
+      <c r="K9" s="205" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L9" s="205" t="s">
+        <v>1320</v>
       </c>
       <c r="M9" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="N9" s="204" t="s">
-        <v>1294</v>
-      </c>
-      <c r="O9" s="204" t="s">
-        <v>1295</v>
+      <c r="N9" s="205" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O9" s="205" t="s">
+        <v>1322</v>
       </c>
       <c r="P9" s="70" t="s">
         <v>1171</v>
       </c>
-      <c r="Q9" s="204" t="s">
-        <v>1296</v>
-      </c>
-      <c r="R9" s="204" t="s">
-        <v>1297</v>
+      <c r="Q9" s="205" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R9" s="205" t="s">
+        <v>1324</v>
       </c>
       <c r="S9" s="70" t="s">
         <v>1171</v>
@@ -24523,46 +24781,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="73.97" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="80.0" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="26.86" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="26.0" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="22" width="34.63" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="22" width="24.69" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="22" width="30.6" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="22" width="31.45" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="22" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="22" width="31.45" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="22" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="22" width="37.03" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="22" width="35.05" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="22" width="36.04" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="22" width="40.93" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="22" width="39.06" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="22" width="44.83" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="22" width="38.06" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="22" width="48.83" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="22" width="23.41" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="22" width="39.48" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="22" width="25.27" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="22" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="25" customWidth="true" hidden="false" style="22" width="25.27" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="22" width="26.73" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="22" width="20.97" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="22" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="22" width="16.09" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="30" customWidth="true" hidden="false" style="22" width="24.28" collapsed="true" outlineLevel="0"/>
-    <col min="31" max="31" customWidth="true" hidden="false" style="22" width="25.27" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="22" width="41.22" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="22" width="34.63" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="22" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="22" width="22.13" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="36" customWidth="true" hidden="false" style="22" width="47.11" collapsed="true" outlineLevel="0"/>
-    <col min="37" max="37" customWidth="true" hidden="false" style="22" width="38.06" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="22" width="54.61" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="22" width="62.32" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="74.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="80.5" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="27.03" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="26.18" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="22" width="34.85" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="22" width="24.85" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="22" width="30.8" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="22" width="31.65" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="22" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="22" width="31.65" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="22" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="22" width="37.26" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="22" width="35.28" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="22" width="36.27" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="22" width="41.19" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="22" width="39.31" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="22" width="45.12" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="22" width="38.29" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="22" width="49.14" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="22" width="23.56" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="22" width="39.74" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="22" width="25.42" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="22" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="22" width="25.42" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="22" width="26.91" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="22" width="21.11" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="22" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="22" width="16.16" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="30" customWidth="true" hidden="false" style="22" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="31" max="31" customWidth="true" hidden="false" style="22" width="25.42" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="22" width="41.47" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="22" width="34.85" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="22" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="22" width="22.26" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="36" customWidth="true" hidden="false" style="22" width="47.41" collapsed="true" outlineLevel="0"/>
+    <col min="37" max="37" customWidth="true" hidden="false" style="22" width="38.29" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="22" width="54.96" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="22" width="62.72" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24958,9 +25216,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="76.1" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="86.88" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1024" customWidth="true" hidden="false" style="1" width="47.68" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="76.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="87.43" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1024" customWidth="true" hidden="false" style="1" width="47.99" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25153,22 +25411,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="73.97" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="83.58" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="25.57" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="40.93" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="28.28" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="35.31" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="23.98" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="38.06" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="57.32" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="44.96" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="42.79" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="37.64" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="28.46" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="74.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="84.11" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="24.28" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="25.73" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="41.19" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="28.47" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="35.54" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="38.29" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="57.67" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="45.26" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="43.07" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="37.88" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="28.65" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25357,38 +25615,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.11" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="82.29" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="22.81" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="24.69" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="39.06" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="60.92" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="39.06" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="53.3" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="23.41" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="32.75" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="35.2" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.6" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="36.04" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="37.03" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="23.98" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="42.36" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="34.2" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="60.62" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="1" width="36.04" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="28.28" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="25.27" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="32.33" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="28.15" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="30" customWidth="true" hidden="false" style="1" width="24.69" collapsed="true" outlineLevel="0"/>
-    <col min="31" max="31" customWidth="true" hidden="false" style="1" width="43.95" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="71.56" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="82.83" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="22.97" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="24.85" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="39.31" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="61.3" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="39.31" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="53.65" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="23.56" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="32.97" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="35.43" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="30.8" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="36.27" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="37.26" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="24.14" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="42.63" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="34.43" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="61.02" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="1" width="36.27" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="1" width="29.66" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="28.47" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="25.42" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="32.54" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="28.33" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="24.28" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="30" customWidth="true" hidden="false" style="1" width="24.85" collapsed="true" outlineLevel="0"/>
+    <col min="31" max="31" customWidth="true" hidden="false" style="1" width="44.24" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25845,16 +26103,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="94.22" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="87.88" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="27.87" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="6" customWidth="true" hidden="false" style="1" width="37.64" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="21.69" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="30.6" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="10" customWidth="true" hidden="false" style="1" width="23.41" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="17" customWidth="true" hidden="false" style="1" width="48.83" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="30.01" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1024" customWidth="true" hidden="false" style="1" width="17.22" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="94.82" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="88.43" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="28.03" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="6" customWidth="true" hidden="false" style="1" width="37.88" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="21.82" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="30.8" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="10" customWidth="true" hidden="false" style="1" width="23.56" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="17" customWidth="true" hidden="false" style="1" width="49.14" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="30.21" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1024" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26144,17 +26402,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="75.69" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="82.13" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="48.54" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="5" customWidth="true" hidden="false" style="1" width="36.04" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="36.61" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="27.47" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="25.57" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="19.83" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="20.54" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="1024" customWidth="true" hidden="false" style="1" width="17.37" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="76.16" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="82.66" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="48.85" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="5" customWidth="true" hidden="false" style="1" width="36.27" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="36.84" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="27.64" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="25.73" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="19.94" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="1" width="20.66" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="1024" customWidth="true" hidden="false" style="1" width="17.47" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
